--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2660672.71365273</v>
+        <v>-2663428.055731779</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.556796760744578</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>127.6203594322933</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>354.4145235433564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>36.11477829577594</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>98.82736007214666</v>
       </c>
       <c r="W4" t="n">
-        <v>169.3274933806856</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>265.1797899857423</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>64.83556544767973</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>347.8075206063386</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>89.43871611633664</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>71.75776228381947</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>3.546504058242721</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.9354087744531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>308.8023113177933</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555396</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>89.34519834805211</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>33.18499890534941</v>
       </c>
       <c r="U10" t="n">
         <v>286.2265992197056</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1847,10 +1847,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>18.70843787977262</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E25" t="n">
         <v>122.1493151545295</v>
@@ -2491,10 +2491,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652547</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
@@ -2530,7 +2530,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652567</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652587</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808202</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972046</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652641</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652571</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972057</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3661,7 +3661,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
         <v>124.3308255261727</v>
@@ -3670,10 +3670,10 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972037</v>
+        <v>261.8998268972039</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3743,13 +3743,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808202</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180.7093092948332</v>
+        <v>148.564445544634</v>
       </c>
       <c r="C2" t="n">
-        <v>180.7093092948332</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="D2" t="n">
-        <v>180.7093092948332</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="E2" t="n">
-        <v>180.7093092948332</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="F2" t="n">
-        <v>180.7093092948332</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
@@ -4334,13 +4334,13 @@
         <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>525.3175166702108</v>
+        <v>842.8799399054598</v>
       </c>
       <c r="M2" t="n">
-        <v>821.3880832278138</v>
+        <v>1138.950506463063</v>
       </c>
       <c r="N2" t="n">
-        <v>1126.863189463399</v>
+        <v>1444.425612698648</v>
       </c>
       <c r="O2" t="n">
         <v>1719.541832015283</v>
@@ -4373,7 +4373,7 @@
         <v>925.3036175845675</v>
       </c>
       <c r="Y2" t="n">
-        <v>567.309149358955</v>
+        <v>535.1642856087558</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4389,19 @@
         <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669849</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615294</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884144</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686806</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093836</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
@@ -4443,7 +4443,7 @@
         <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.95470102812</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4522,16 +4522,16 @@
         <v>477.5222156304092</v>
       </c>
       <c r="V4" t="n">
-        <v>222.8377274245223</v>
+        <v>377.6965993959176</v>
       </c>
       <c r="W4" t="n">
-        <v>51.79985532281972</v>
+        <v>88.27942935895703</v>
       </c>
       <c r="X4" t="n">
-        <v>51.79985532281972</v>
+        <v>88.27942935895703</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.79985532281972</v>
+        <v>88.27942935895703</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1166.041740350785</v>
+        <v>1598.49297013392</v>
       </c>
       <c r="C5" t="n">
-        <v>1166.041740350785</v>
+        <v>1229.530453193509</v>
       </c>
       <c r="D5" t="n">
-        <v>807.7760417440347</v>
+        <v>1229.530453193509</v>
       </c>
       <c r="E5" t="n">
-        <v>539.9176680210627</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="F5" t="n">
-        <v>532.9721672718592</v>
+        <v>432.7562958056569</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719912</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
         <v>117.2903254719912</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019558</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2257.170226019558</v>
+        <v>2336.413538083233</v>
       </c>
       <c r="V5" t="n">
-        <v>1926.107338675987</v>
+        <v>2336.413538083233</v>
       </c>
       <c r="W5" t="n">
-        <v>1926.107338675987</v>
+        <v>2336.413538083233</v>
       </c>
       <c r="X5" t="n">
-        <v>1552.641580414907</v>
+        <v>2336.413538083233</v>
       </c>
       <c r="Y5" t="n">
-        <v>1552.641580414907</v>
+        <v>1985.092810198042</v>
       </c>
     </row>
     <row r="6">
@@ -4702,19 +4702,19 @@
         <v>292.2586322264046</v>
       </c>
       <c r="C7" t="n">
-        <v>201.9164947351555</v>
+        <v>292.2586322264046</v>
       </c>
       <c r="D7" t="n">
-        <v>51.79985532281972</v>
+        <v>292.2586322264046</v>
       </c>
       <c r="E7" t="n">
-        <v>51.79985532281972</v>
+        <v>292.2586322264046</v>
       </c>
       <c r="F7" t="n">
-        <v>51.79985532281972</v>
+        <v>292.2586322264046</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>124.2824434882939</v>
       </c>
       <c r="H7" t="n">
         <v>51.79985532281972</v>
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>912.4625122930327</v>
+        <v>1183.403261976894</v>
       </c>
       <c r="C8" t="n">
-        <v>543.499995352621</v>
+        <v>814.440745036482</v>
       </c>
       <c r="D8" t="n">
-        <v>543.499995352621</v>
+        <v>456.1750464297314</v>
       </c>
       <c r="E8" t="n">
-        <v>539.9176680210627</v>
+        <v>70.38679383148718</v>
       </c>
       <c r="F8" t="n">
-        <v>532.9721672718592</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104779</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135518</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477397</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
         <v>2075.818195082061</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2257.170226019558</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.590997961805</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V8" t="n">
-        <v>1672.528110618234</v>
+        <v>2258.929878797415</v>
       </c>
       <c r="W8" t="n">
-        <v>1672.528110618234</v>
+        <v>1947.008352213785</v>
       </c>
       <c r="X8" t="n">
-        <v>1299.062352357154</v>
+        <v>1573.542593952705</v>
       </c>
       <c r="Y8" t="n">
-        <v>1299.062352357154</v>
+        <v>1183.403261976894</v>
       </c>
     </row>
     <row r="9">
@@ -4866,16 +4866,16 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
@@ -4884,22 +4884,22 @@
         <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258286</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421431</v>
+        <v>599.2586963421436</v>
       </c>
       <c r="M9" t="n">
-        <v>965.5645858344685</v>
+        <v>965.564585834469</v>
       </c>
       <c r="N9" t="n">
         <v>1355.974147160211</v>
       </c>
       <c r="O9" t="n">
-        <v>1690.902827875742</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2255.657696694298</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>142.0475304218623</v>
+        <v>368.6491318331198</v>
       </c>
       <c r="C10" t="n">
-        <v>51.79985532281972</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="D10" t="n">
-        <v>51.79985532281972</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="E10" t="n">
         <v>51.79985532281972</v>
@@ -4960,16 +4960,16 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080546</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121971</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225441</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317418</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
         <v>1130.141273750633</v>
@@ -4981,31 +4981,31 @@
         <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153877</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153877</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.049095695859</v>
+        <v>1314.892441002378</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.931318706257</v>
+        <v>1025.774664012777</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2468305003703</v>
+        <v>771.0901758068896</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8296604634097</v>
+        <v>771.0901758068896</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8401095653924</v>
+        <v>771.0901758068896</v>
       </c>
       <c r="Y10" t="n">
-        <v>142.0475304218623</v>
+        <v>550.2975966633595</v>
       </c>
     </row>
     <row r="11">
@@ -5030,31 +5030,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5364,7 +5364,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5416,13 +5416,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5653,19 +5653,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,16 +5835,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5887,19 +5887,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6072,13 +6072,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6136,19 +6136,19 @@
         <v>411.2214559580112</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3734194384016</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L25" t="n">
         <v>898.2659412311323</v>
@@ -6160,19 +6160,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O25" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P25" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q25" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T25" t="n">
         <v>2243.385329532432</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6309,13 +6309,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6619,16 +6619,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954154</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380736</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.265941231133</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
@@ -6646,22 +6646,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6783,7 +6783,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
         <v>680.0291294438176</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384026</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6926,22 +6926,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -7020,10 +7020,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,73 +7069,73 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7260,10 +7260,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345477</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7406,16 +7406,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7561,7 +7561,7 @@
         <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,10 +7819,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -7982,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>320.7701244800494</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>320.7701244800495</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>299.8549597144491</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>191.4694788103616</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906583</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>363.716095010263</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,16 +22556,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>284.6673792627508</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22720,10 +22720,10 @@
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22762,10 +22762,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>153.3102832516813</v>
       </c>
       <c r="W4" t="n">
-        <v>117.1955049559054</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667966</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457509</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,13 +26384,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363183</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="J3" t="n">
         <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,13 +26399,13 @@
         <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.400124791776761e-11</v>
+        <v>8.526512829121202e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53783.70994333889</v>
+        <v>53783.70994333891</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
@@ -26442,22 +26442,22 @@
         <v>14278.3397947885</v>
       </c>
       <c r="K4" t="n">
-        <v>14278.3397947885</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="L4" t="n">
-        <v>14278.33979478853</v>
+        <v>14278.33979478851</v>
       </c>
       <c r="M4" t="n">
-        <v>14278.33979478853</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="N4" t="n">
         <v>14278.33979478851</v>
       </c>
       <c r="O4" t="n">
-        <v>14278.3397947885</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="P4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478853</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150958</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1082811.720715728</v>
+        <v>-1083276.017507753</v>
       </c>
       <c r="C6" t="n">
         <v>-395312.2038766498</v>
@@ -26528,31 +26528,31 @@
         <v>-222547.8440867576</v>
       </c>
       <c r="E6" t="n">
-        <v>-608298.8781013531</v>
+        <v>-608333.6160267885</v>
       </c>
       <c r="F6" t="n">
-        <v>-107410.0103556022</v>
+        <v>-107444.7482810379</v>
       </c>
       <c r="G6" t="n">
-        <v>-107410.0103556021</v>
+        <v>-107444.7482810379</v>
       </c>
       <c r="H6" t="n">
-        <v>-107410.0103556021</v>
+        <v>-107444.7482810378</v>
       </c>
       <c r="I6" t="n">
-        <v>-136870.1736423358</v>
+        <v>-136870.1736423357</v>
       </c>
       <c r="J6" t="n">
         <v>-286856.4724747519</v>
       </c>
       <c r="K6" t="n">
-        <v>-117442.4556487039</v>
+        <v>-117442.455648704</v>
       </c>
       <c r="L6" t="n">
         <v>-117442.4556487039</v>
       </c>
       <c r="M6" t="n">
-        <v>-248326.9125529392</v>
+        <v>-248326.9125529391</v>
       </c>
       <c r="N6" t="n">
         <v>-136870.1736423357</v>
@@ -26710,22 +26710,22 @@
         <v>24.28464749203967</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203976</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203976</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203967</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498443</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26926,13 +26926,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>1.06581410364015e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918295</v>
+        <v>428.2691096918292</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>31.82341511269721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>143.7172018861613</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>116.7505800865195</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>38.430418049715</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>77.8081049822912</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>75.40329792762749</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>378.3838660140191</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>40.43865739961967</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>77.90162275057573</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>187.520229808089</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265702</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730739</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182602</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793975</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853279</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027918</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
-        <v>674.066977083933</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712722</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062751</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086969</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
-        <v>237.3018354237519</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179229</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360042</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.5210704925562</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586112</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.388397967503</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973636</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041651</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315577</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.908043147001</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274804</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248981</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841571</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31671,31 +31671,31 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729227</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>15.06611229599259</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425714</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
-        <v>119.8048622964563</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309435</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509645</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662505</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843059</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523068</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32084,10 +32084,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N15" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32555,19 +32555,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33029,7 +33029,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197787</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33424,7 +33424,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33503,10 +33503,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33980,13 +33980,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34702,7 +34702,7 @@
         <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>560.7931358115566</v>
       </c>
       <c r="M2" t="n">
         <v>299.0611783410131</v>
@@ -34711,7 +34711,7 @@
         <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>598.665295506953</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
         <v>524.1263114938092</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915739</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.449553134417</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153406</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755191</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873421</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495854</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510055</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961977</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171349</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K9" t="n">
-        <v>188.546958993144</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174895</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821468</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482245</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025565</v>
+        <v>638.1667584170058</v>
       </c>
       <c r="P9" t="n">
-        <v>570.4594634530873</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>309.4991650401237</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978357</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266582</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912596</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701672</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633446</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643208</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35732,10 +35732,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N15" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,25 +36516,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N25" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P25" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753343</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
         <v>288.6172359016746</v>
@@ -37005,10 +37005,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37628,13 +37628,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38187,7 +38187,7 @@
         <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
